--- a/bulkUploadTest.xlsx
+++ b/bulkUploadTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu20.04LTS\home\sam\artha\artha_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561D64F-4401-4B28-90A8-5C97446B5350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE4BB21-F789-4DAD-86D5-4297E64D2DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{ADBB060B-B434-4FC1-B4D6-C18AFD18D2CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{ADBB060B-B434-4FC1-B4D6-C18AFD18D2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>item_name</t>
   </si>
@@ -77,13 +77,19 @@
     <t>home made</t>
   </si>
   <si>
-    <t>aachar free</t>
-  </si>
-  <si>
     <t>momo002</t>
   </si>
   <si>
     <t>chicken momo</t>
+  </si>
+  <si>
+    <t>momo003</t>
+  </si>
+  <si>
+    <t>pork momo</t>
+  </si>
+  <si>
+    <t>sungur ko momo</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08326BEB-6349-409B-9D6C-CAB8CC91B825}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,18 +526,18 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -540,7 +546,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -552,7 +558,39 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
